--- a/zurmo/src/test/java/projekt/automatyzacja/testdata/createCatalogItem.xlsx
+++ b/zurmo/src/test/java/projekt/automatyzacja/testdata/createCatalogItem.xlsx
@@ -876,7 +876,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
